--- a/Database/Construction_Working_Services_Database.xlsx
+++ b/Database/Construction_Working_Services_Database.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="DB_Schema" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Project Name</t>
   </si>
@@ -36,12 +37,6 @@
   </si>
   <si>
     <t>admin_info_tbl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">user_id </t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>Construction Worker
@@ -81,12 +76,6 @@
     <t>provider_gender</t>
   </si>
   <si>
-    <t>provider_skills</t>
-  </si>
-  <si>
-    <t>year_of_expereince</t>
-  </si>
-  <si>
     <t>customer_info_tbl</t>
   </si>
   <si>
@@ -102,9 +91,6 @@
     <t>customer_mobile</t>
   </si>
   <si>
-    <t>customer_dob</t>
-  </si>
-  <si>
     <t>customer_username</t>
   </si>
   <si>
@@ -135,18 +121,6 @@
     <t>service_info_tbl</t>
   </si>
   <si>
-    <t>provider_id(fk)</t>
-  </si>
-  <si>
-    <t>service_id(fk)</t>
-  </si>
-  <si>
-    <t>service_provider_info</t>
-  </si>
-  <si>
-    <t>service_provider_id(pk)</t>
-  </si>
-  <si>
     <t>work_status_tbl</t>
   </si>
   <si>
@@ -177,12 +151,6 @@
     <t>resolve_date</t>
   </si>
   <si>
-    <t>work_tbl</t>
-  </si>
-  <si>
-    <t>work_id(pk)</t>
-  </si>
-  <si>
     <t>work_id (fk)</t>
   </si>
   <si>
@@ -196,6 +164,33 @@
   </si>
   <si>
     <t>invoice</t>
+  </si>
+  <si>
+    <t>provider_availability</t>
+  </si>
+  <si>
+    <t>provider_charges</t>
+  </si>
+  <si>
+    <t>schedule_management_tbl</t>
+  </si>
+  <si>
+    <t>booking_tbl</t>
+  </si>
+  <si>
+    <t>booking_id(pk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">admin_username </t>
+  </si>
+  <si>
+    <t>admin_password</t>
+  </si>
+  <si>
+    <t>date_created</t>
   </si>
 </sst>
 </file>
@@ -248,7 +243,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,12 +280,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -322,7 +311,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -352,7 +341,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -362,6 +350,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent2" xfId="1" builtinId="34"/>
@@ -687,27 +679,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:R132"/>
+  <dimension ref="A2:R134"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.5703125" customWidth="1"/>
+    <col min="14" max="15" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="56.25" x14ac:dyDescent="0.3">
@@ -715,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:14" ht="21" x14ac:dyDescent="0.35">
@@ -723,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:14" ht="14.45" x14ac:dyDescent="0.3">
@@ -731,12 +722,14 @@
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -764,155 +757,143 @@
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="E8" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="F8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="H8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="I8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="14.45" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
+      <c r="E9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
       <c r="N9" s="3"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="G11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="H11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="I11" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="12" t="s">
+      <c r="J11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="12" t="s">
+      <c r="L11" s="13"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="4"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="15"/>
+    </row>
+    <row r="13" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="14"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="4"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="15"/>
+    </row>
+    <row r="14" spans="2:14" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="B14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="D14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="2:14" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="2:14" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="E14" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="3"/>
@@ -924,39 +905,39 @@
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="14"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" s="11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>55</v>
+        <v>34</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -965,91 +946,83 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
     </row>
-    <row r="17" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+    <row r="17" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>51</v>
+        <v>32</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>53</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="16"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>48</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:18" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1062,24 +1035,32 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="16"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
@@ -1087,257 +1068,287 @@
       <c r="M22" s="4"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="A23" s="15"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+    <row r="23" spans="1:18" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-    </row>
-    <row r="25" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B25" s="22"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-    </row>
-    <row r="26" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-    </row>
-    <row r="27" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B27" s="22"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-    </row>
-    <row r="28" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="21"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-    </row>
-    <row r="29" spans="1:18" ht="14.45" x14ac:dyDescent="0.3">
-      <c r="B29" s="22"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="21"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B30" s="14"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="18"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="18"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B31" s="18"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
       <c r="G31" s="18"/>
       <c r="H31" s="18"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
       <c r="G32" s="18"/>
       <c r="H32" s="18"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
     </row>
     <row r="33" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
     </row>
     <row r="34" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
     </row>
     <row r="35" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-    </row>
-    <row r="129" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-    </row>
-    <row r="130" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+    </row>
+    <row r="36" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
     </row>
     <row r="131" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I131" s="1"/>
@@ -1346,10 +1357,32 @@
     <row r="132" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
+    </row>
+    <row r="133" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I133" s="1"/>
+      <c r="J133" s="1"/>
+    </row>
+    <row r="134" spans="9:10" x14ac:dyDescent="0.25">
+      <c r="I134" s="1"/>
+      <c r="J134" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>